--- a/test/doc_fieldset_2.xlsx
+++ b/test/doc_fieldset_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="57">
   <si>
     <t>field1</t>
   </si>
@@ -144,12 +144,6 @@
     <t>val3_16</t>
   </si>
   <si>
-    <t>val4_11</t>
-  </si>
-  <si>
-    <t>val4_12</t>
-  </si>
-  <si>
     <t>val4_13</t>
   </si>
   <si>
@@ -162,12 +156,6 @@
     <t>val4_16</t>
   </si>
   <si>
-    <t>val6_11</t>
-  </si>
-  <si>
-    <t>val6_12</t>
-  </si>
-  <si>
     <t>val6_13</t>
   </si>
   <si>
@@ -193,6 +181,12 @@
   </si>
   <si>
     <t>obj9</t>
+  </si>
+  <si>
+    <t>another1</t>
+  </si>
+  <si>
+    <t>another2</t>
   </si>
 </sst>
 </file>
@@ -589,8 +583,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="C5:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:Q7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,58 +971,58 @@
         <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="S15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="U15" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
@@ -1036,63 +1030,63 @@
         <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="U16" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="T16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1115,7 +1109,7 @@
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1138,7 +1132,7 @@
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>24</v>
@@ -1197,7 +1191,7 @@
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>30</v>
@@ -1256,7 +1250,7 @@
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>36</v>
